--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H2">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6788056666666668</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N2">
-        <v>2.036417</v>
+        <v>0.735175</v>
       </c>
       <c r="O2">
-        <v>0.5807293790604947</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P2">
-        <v>0.5807293790604947</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q2">
-        <v>1.725497078708556</v>
+        <v>0.7418196750222222</v>
       </c>
       <c r="R2">
-        <v>15.529473708377</v>
+        <v>6.6763770752</v>
       </c>
       <c r="S2">
-        <v>0.116222535722565</v>
+        <v>0.02501071963264059</v>
       </c>
       <c r="T2">
-        <v>0.116222535722565</v>
+        <v>0.02501071963264059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H3">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I3">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J3">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.019209</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N3">
-        <v>0.057627</v>
+        <v>2.036417</v>
       </c>
       <c r="O3">
-        <v>0.01643361449404475</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P3">
-        <v>0.01643361449404475</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q3">
-        <v>0.048828516043</v>
+        <v>2.054822589383111</v>
       </c>
       <c r="R3">
-        <v>0.4394566443869999</v>
+        <v>18.493403304448</v>
       </c>
       <c r="S3">
-        <v>0.003288892238713511</v>
+        <v>0.06927908952581772</v>
       </c>
       <c r="T3">
-        <v>0.003288892238713511</v>
+        <v>0.06927908952581772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H4">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I4">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J4">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.47087</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N4">
-        <v>1.41261</v>
+        <v>1.130778</v>
       </c>
       <c r="O4">
-        <v>0.4028370064454604</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P4">
-        <v>0.4028370064454605</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q4">
-        <v>1.196932862156667</v>
+        <v>1.140998222848</v>
       </c>
       <c r="R4">
-        <v>10.77239575941</v>
+        <v>10.268984005632</v>
       </c>
       <c r="S4">
-        <v>0.08062057829366602</v>
+        <v>0.03846916927909416</v>
       </c>
       <c r="T4">
-        <v>0.08062057829366602</v>
+        <v>0.03846916927909416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.518570333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H5">
-        <v>7.555711</v>
+        <v>9.081344</v>
       </c>
       <c r="I5">
-        <v>0.1982904796327865</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J5">
-        <v>0.1982904796327864</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6788056666666668</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N5">
-        <v>2.036417</v>
+        <v>1.212883</v>
       </c>
       <c r="O5">
-        <v>0.5807293790604947</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P5">
-        <v>0.5807293790604947</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q5">
-        <v>1.709619814165222</v>
+        <v>1.223845306083555</v>
       </c>
       <c r="R5">
-        <v>15.386578327487</v>
+        <v>11.014607754752</v>
       </c>
       <c r="S5">
-        <v>0.1151531071107558</v>
+        <v>0.04126238876484647</v>
       </c>
       <c r="T5">
-        <v>0.1151531071107557</v>
+        <v>0.04126238876484647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.518570333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H6">
-        <v>7.555711</v>
+        <v>9.081344</v>
       </c>
       <c r="I6">
-        <v>0.1982904796327865</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J6">
-        <v>0.1982904796327864</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.019209</v>
+        <v>0.328092</v>
       </c>
       <c r="N6">
-        <v>0.057627</v>
+        <v>0.984276</v>
       </c>
       <c r="O6">
-        <v>0.01643361449404475</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="P6">
-        <v>0.01643361449404475</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="Q6">
-        <v>0.048379217533</v>
+        <v>0.9931721052159999</v>
       </c>
       <c r="R6">
-        <v>0.435412957797</v>
+        <v>8.938548946944</v>
       </c>
       <c r="S6">
-        <v>0.003258629300124445</v>
+        <v>0.03348515806051205</v>
       </c>
       <c r="T6">
-        <v>0.003258629300124444</v>
+        <v>0.03348515806051205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,48 +853,48 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H7">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I7">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J7">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.47087</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N7">
-        <v>1.41261</v>
+        <v>0.735175</v>
       </c>
       <c r="O7">
-        <v>0.4028370064454604</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P7">
-        <v>0.4028370064454605</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q7">
-        <v>1.185919212856666</v>
+        <v>0.6171966482694445</v>
       </c>
       <c r="R7">
-        <v>10.67327291571</v>
+        <v>5.554769834425</v>
       </c>
       <c r="S7">
-        <v>0.07987874322190625</v>
+        <v>0.02080900904604632</v>
       </c>
       <c r="T7">
-        <v>0.07987874322190625</v>
+        <v>0.02080900904604632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.780877333333333</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H8">
-        <v>8.342632</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I8">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J8">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,27 +936,27 @@
         <v>2.036417</v>
       </c>
       <c r="O8">
-        <v>0.5807293790604947</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P8">
-        <v>0.5807293790604947</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q8">
-        <v>1.887675292171556</v>
+        <v>1.709619814165222</v>
       </c>
       <c r="R8">
-        <v>16.989077629544</v>
+        <v>15.386578327487</v>
       </c>
       <c r="S8">
-        <v>0.1271462071910398</v>
+        <v>0.05764045264667938</v>
       </c>
       <c r="T8">
-        <v>0.1271462071910398</v>
+        <v>0.05764045264667937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.780877333333333</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H9">
-        <v>8.342632</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I9">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J9">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.019209</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N9">
-        <v>0.057627</v>
+        <v>1.130778</v>
       </c>
       <c r="O9">
-        <v>0.01643361449404475</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P9">
-        <v>0.01643361449404475</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q9">
-        <v>0.053417872696</v>
+        <v>0.9493146414619998</v>
       </c>
       <c r="R9">
-        <v>0.480760854264</v>
+        <v>8.543831773157999</v>
       </c>
       <c r="S9">
-        <v>0.003598012824386189</v>
+        <v>0.0320064877492708</v>
       </c>
       <c r="T9">
-        <v>0.003598012824386189</v>
+        <v>0.0320064877492708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.780877333333333</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H10">
-        <v>8.342632</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I10">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J10">
-        <v>0.2189422677336167</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.47087</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N10">
-        <v>1.41261</v>
+        <v>1.212883</v>
       </c>
       <c r="O10">
-        <v>0.4028370064454604</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P10">
-        <v>0.4028370064454605</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q10">
-        <v>1.309431709946667</v>
+        <v>1.018243713868111</v>
       </c>
       <c r="R10">
-        <v>11.78488538952</v>
+        <v>9.164193424813</v>
       </c>
       <c r="S10">
-        <v>0.08819804771819066</v>
+        <v>0.03433045644750678</v>
       </c>
       <c r="T10">
-        <v>0.08819804771819068</v>
+        <v>0.03433045644750677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.237736333333333</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H11">
-        <v>3.713209</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I11">
-        <v>0.09744867075868563</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J11">
-        <v>0.09744867075868563</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6788056666666668</v>
+        <v>0.328092</v>
       </c>
       <c r="N11">
-        <v>2.036417</v>
+        <v>0.984276</v>
       </c>
       <c r="O11">
-        <v>0.5807293790604947</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="P11">
-        <v>0.5807293790604947</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="Q11">
-        <v>0.840182436905889</v>
+        <v>0.826322777804</v>
       </c>
       <c r="R11">
-        <v>7.561641932153001</v>
+        <v>7.436905000236001</v>
       </c>
       <c r="S11">
-        <v>0.05659130605996209</v>
+        <v>0.02785977241854835</v>
       </c>
       <c r="T11">
-        <v>0.05659130605996209</v>
+        <v>0.02785977241854835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.237736333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H12">
-        <v>3.713209</v>
+        <v>12.70586</v>
       </c>
       <c r="I12">
-        <v>0.09744867075868563</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J12">
-        <v>0.09744867075868563</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.019209</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N12">
-        <v>0.057627</v>
+        <v>0.735175</v>
       </c>
       <c r="O12">
-        <v>0.01643361449404475</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P12">
-        <v>0.01643361449404475</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q12">
-        <v>0.023775677227</v>
+        <v>1.037892291722222</v>
       </c>
       <c r="R12">
-        <v>0.213981095043</v>
+        <v>9.3410306255</v>
       </c>
       <c r="S12">
-        <v>0.001601433888205331</v>
+        <v>0.03499291538252298</v>
       </c>
       <c r="T12">
-        <v>0.001601433888205331</v>
+        <v>0.03499291538252297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.237736333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H13">
-        <v>3.713209</v>
+        <v>12.70586</v>
       </c>
       <c r="I13">
-        <v>0.09744867075868563</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J13">
-        <v>0.09744867075868563</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.47087</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N13">
-        <v>1.41261</v>
+        <v>2.036417</v>
       </c>
       <c r="O13">
-        <v>0.4028370064454604</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P13">
-        <v>0.4028370064454605</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q13">
-        <v>0.5828129072766666</v>
+        <v>2.874936589291111</v>
       </c>
       <c r="R13">
-        <v>5.245316165489999</v>
+        <v>25.87442930362</v>
       </c>
       <c r="S13">
-        <v>0.0392559308105182</v>
+        <v>0.09692953074374305</v>
       </c>
       <c r="T13">
-        <v>0.0392559308105182</v>
+        <v>0.09692953074374304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.622274</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H14">
-        <v>10.866822</v>
+        <v>12.70586</v>
       </c>
       <c r="I14">
-        <v>0.2851865756199669</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J14">
-        <v>0.2851865756199669</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.6788056666666668</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N14">
-        <v>2.036417</v>
+        <v>1.130778</v>
       </c>
       <c r="O14">
-        <v>0.5807293790604947</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P14">
-        <v>0.5807293790604947</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q14">
-        <v>2.458820117419333</v>
+        <v>1.59638966212</v>
       </c>
       <c r="R14">
-        <v>22.129381056774</v>
+        <v>14.36750695908</v>
       </c>
       <c r="S14">
-        <v>0.1656162229761722</v>
+        <v>0.05382285696659782</v>
       </c>
       <c r="T14">
-        <v>0.1656162229761722</v>
+        <v>0.05382285696659782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,728 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.622274</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H15">
-        <v>10.866822</v>
+        <v>12.70586</v>
       </c>
       <c r="I15">
-        <v>0.2851865756199669</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J15">
-        <v>0.2851865756199669</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.019209</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N15">
-        <v>0.057627</v>
+        <v>1.212883</v>
       </c>
       <c r="O15">
-        <v>0.01643361449404475</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P15">
-        <v>0.01643361449404475</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q15">
-        <v>0.06958026126599999</v>
+        <v>1.712302399375555</v>
       </c>
       <c r="R15">
-        <v>0.626222351394</v>
+        <v>15.41072159438</v>
       </c>
       <c r="S15">
-        <v>0.004686646242615276</v>
+        <v>0.05773089698085573</v>
       </c>
       <c r="T15">
-        <v>0.004686646242615276</v>
+        <v>0.05773089698085572</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.235286666666666</v>
+      </c>
+      <c r="H16">
+        <v>12.70586</v>
+      </c>
+      <c r="I16">
+        <v>0.2903258437382188</v>
+      </c>
+      <c r="J16">
+        <v>0.2903258437382187</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.328092</v>
+      </c>
+      <c r="N16">
+        <v>0.984276</v>
+      </c>
+      <c r="O16">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P16">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q16">
+        <v>1.38956367304</v>
+      </c>
+      <c r="R16">
+        <v>12.50607305736</v>
+      </c>
+      <c r="S16">
+        <v>0.04684964366449918</v>
+      </c>
+      <c r="T16">
+        <v>0.04684964366449917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.622274</v>
-      </c>
-      <c r="H16">
-        <v>10.866822</v>
-      </c>
-      <c r="I16">
-        <v>0.2851865756199669</v>
-      </c>
-      <c r="J16">
-        <v>0.2851865756199669</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.47087</v>
-      </c>
-      <c r="N16">
-        <v>1.41261</v>
-      </c>
-      <c r="O16">
-        <v>0.4028370064454604</v>
-      </c>
-      <c r="P16">
-        <v>0.4028370064454605</v>
-      </c>
-      <c r="Q16">
-        <v>1.70562015838</v>
-      </c>
-      <c r="R16">
-        <v>15.35058142542</v>
-      </c>
-      <c r="S16">
-        <v>0.1148837064011794</v>
-      </c>
-      <c r="T16">
-        <v>0.1148837064011794</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.937427333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.812282</v>
+      </c>
+      <c r="I17">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="J17">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2450583333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.735175</v>
+      </c>
+      <c r="O17">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="P17">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="Q17">
+        <v>0.4747827132611111</v>
+      </c>
+      <c r="R17">
+        <v>4.27304441935</v>
+      </c>
+      <c r="S17">
+        <v>0.01600747152930706</v>
+      </c>
+      <c r="T17">
+        <v>0.01600747152930706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.937427333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.812282</v>
+      </c>
+      <c r="I18">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="J18">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N18">
+        <v>2.036417</v>
+      </c>
+      <c r="O18">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="P18">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="Q18">
+        <v>1.315136652621556</v>
+      </c>
+      <c r="R18">
+        <v>11.836229873594</v>
+      </c>
+      <c r="S18">
+        <v>0.04434030965320761</v>
+      </c>
+      <c r="T18">
+        <v>0.04434030965320759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.937427333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.812282</v>
+      </c>
+      <c r="I19">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="J19">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3769259999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.130778</v>
+      </c>
+      <c r="O19">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="P19">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="Q19">
+        <v>0.7302667350439997</v>
+      </c>
+      <c r="R19">
+        <v>6.572400615395999</v>
+      </c>
+      <c r="S19">
+        <v>0.02462120806742174</v>
+      </c>
+      <c r="T19">
+        <v>0.02462120806742173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.937427333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.812282</v>
+      </c>
+      <c r="I20">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="J20">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4042943333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.212883</v>
+      </c>
+      <c r="O20">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="P20">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="Q20">
+        <v>0.7832908921117777</v>
+      </c>
+      <c r="R20">
+        <v>7.049618029005999</v>
+      </c>
+      <c r="S20">
+        <v>0.02640893677135448</v>
+      </c>
+      <c r="T20">
+        <v>0.02640893677135448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.937427333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.812282</v>
+      </c>
+      <c r="I21">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="J21">
+        <v>0.1328092451588843</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.328092</v>
+      </c>
+      <c r="N21">
+        <v>0.984276</v>
+      </c>
+      <c r="O21">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P21">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q21">
+        <v>0.6356544086479999</v>
+      </c>
+      <c r="R21">
+        <v>5.720889677832</v>
+      </c>
+      <c r="S21">
+        <v>0.02143131913759341</v>
+      </c>
+      <c r="T21">
+        <v>0.02143131913759341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.869646666666667</v>
+      </c>
+      <c r="H22">
+        <v>8.60894</v>
+      </c>
+      <c r="I22">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="J22">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2450583333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.735175</v>
+      </c>
+      <c r="O22">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="P22">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="Q22">
+        <v>0.7032308293888889</v>
+      </c>
+      <c r="R22">
+        <v>6.329077464500001</v>
+      </c>
+      <c r="S22">
+        <v>0.02370968269390796</v>
+      </c>
+      <c r="T22">
+        <v>0.02370968269390796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.869646666666667</v>
+      </c>
+      <c r="H23">
+        <v>8.60894</v>
+      </c>
+      <c r="I23">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="J23">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.036417</v>
+      </c>
+      <c r="O23">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="P23">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="Q23">
+        <v>1.947932418664445</v>
+      </c>
+      <c r="R23">
+        <v>17.53139176798</v>
+      </c>
+      <c r="S23">
+        <v>0.06567524861764881</v>
+      </c>
+      <c r="T23">
+        <v>0.06567524861764881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.869646666666667</v>
+      </c>
+      <c r="H24">
+        <v>8.60894</v>
+      </c>
+      <c r="I24">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="J24">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3769259999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.130778</v>
+      </c>
+      <c r="O24">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="P24">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="Q24">
+        <v>1.08164443948</v>
+      </c>
+      <c r="R24">
+        <v>9.73479995532</v>
+      </c>
+      <c r="S24">
+        <v>0.03646803492672064</v>
+      </c>
+      <c r="T24">
+        <v>0.03646803492672064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.869646666666667</v>
+      </c>
+      <c r="H25">
+        <v>8.60894</v>
+      </c>
+      <c r="I25">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="J25">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4042943333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.212883</v>
+      </c>
+      <c r="O25">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="P25">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="Q25">
+        <v>1.160181886002222</v>
+      </c>
+      <c r="R25">
+        <v>10.44163697402</v>
+      </c>
+      <c r="S25">
+        <v>0.03911595344623411</v>
+      </c>
+      <c r="T25">
+        <v>0.03911595344623411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.869646666666667</v>
+      </c>
+      <c r="H26">
+        <v>8.60894</v>
+      </c>
+      <c r="I26">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="J26">
+        <v>0.1967122075319342</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.328092</v>
+      </c>
+      <c r="N26">
+        <v>0.984276</v>
+      </c>
+      <c r="O26">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P26">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q26">
+        <v>0.94150811416</v>
+      </c>
+      <c r="R26">
+        <v>8.473573027440001</v>
+      </c>
+      <c r="S26">
+        <v>0.03174328784742265</v>
+      </c>
+      <c r="T26">
+        <v>0.03174328784742265</v>
       </c>
     </row>
   </sheetData>
